--- a/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_sugarcane_Acrylic_10L.xlsx
+++ b/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_sugarcane_Acrylic_10L.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\acrylic_acid_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD61B8C-FAB3-4A59-BE6C-C79040C10F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC265611-64CD-496B-8CEA-2CFD3C833790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,7 +910,7 @@
         <v>48</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q4:Q32" si="1">IF(E5=H5, 1, IF(F5=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q5:Q32" si="1">IF(E5=H5, 1, IF(F5=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1002,26 +1002,24 @@
         <v>10</v>
       </c>
       <c r="E8" s="3">
-        <v>0.01</v>
+        <v>0.38</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="3">
-        <f>E8*0.08</f>
-        <v>8.0000000000000004E-4</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
-        <f>E8*1.2</f>
-        <v>1.2E-2</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
         <v>96</v>
       </c>
       <c r="Q8">
-        <f t="shared" ref="Q8" si="2">IF(E8=H8, 1, IF(F8=$F$2, 1, 0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1039,19 +1037,17 @@
         <v>10</v>
       </c>
       <c r="E9" s="3">
-        <v>0.01</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="3">
-        <f>E9*0.08</f>
-        <v>8.0000000000000004E-4</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <f>E9*1.2</f>
-        <v>1.2E-2</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
@@ -1174,7 +1170,7 @@
         <v>94</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q12" si="3">IF(E12=H12, 1, IF(F12=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q12" si="2">IF(E12=H12, 1, IF(F12=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1393,7 +1389,7 @@
         <v>89</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" ref="Q18:Q19" si="4">IF(E18=H18, 1, IF(F18=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q18:Q19" si="3">IF(E18=H18, 1, IF(F18=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1430,7 +1426,7 @@
         <v>88</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1506,7 +1502,7 @@
         <v>64</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21" si="5">IF(E21=H21, 1, IF(F21=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q21" si="4">IF(E21=H21, 1, IF(F21=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1799,7 +1795,7 @@
         <v>66</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29:Q31" si="6">IF(E29=H29, 1, IF(F29=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q29:Q31" si="5">IF(E29=H29, 1, IF(F29=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1835,7 +1831,7 @@
         <v>85</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1872,7 +1868,7 @@
         <v>87</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1946,7 +1942,7 @@
         <v>54</v>
       </c>
       <c r="Q33">
-        <f t="shared" ref="Q33:Q35" si="7">IF(E33=H33, 1, IF(F33=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q33:Q35" si="6">IF(E33=H33, 1, IF(F33=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1983,7 +1979,7 @@
         <v>38</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2020,7 +2016,7 @@
         <v>50</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>

--- a/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_sugarcane_Acrylic_10L.xlsx
+++ b/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_sugarcane_Acrylic_10L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\acrylic_acid_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC265611-64CD-496B-8CEA-2CFD3C833790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B924C9-4774-4E78-BADC-68939B30AA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>Load Statements</t>
-  </si>
-  <si>
     <t>g/L/h</t>
   </si>
   <si>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>% as decimal</t>
+  </si>
+  <si>
+    <t>Load statement</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -758,10 +758,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -792,7 +792,7 @@
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <f>IF(E2=H2, 1, IF(F2=$F$2, 1, 0))</f>
@@ -801,7 +801,7 @@
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -810,13 +810,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="4">
         <v>180</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="4">
         <v>120</v>
@@ -830,7 +830,7 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="5">
         <f>IF(E3=H3, 1, IF(F3=$F$2, 1, 0))</f>
@@ -854,7 +854,7 @@
         <v>3.5920000000000001E-2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="4">
         <f>E4*0.8</f>
@@ -870,7 +870,7 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="5">
         <f t="shared" ref="Q4" si="0">IF(E4=H4, 1, IF(F4=$F$2, 1, 0))</f>
@@ -894,7 +894,7 @@
         <v>0.27650000000000002</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3">
         <v>0.21629999999999999</v>
@@ -907,7 +907,7 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q32" si="1">IF(E5=H5, 1, IF(F5=$F$2, 1, 0))</f>
@@ -931,7 +931,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3">
         <v>6.7000000000000004E-2</v>
@@ -944,7 +944,7 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
@@ -953,7 +953,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -981,7 +981,7 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
@@ -990,7 +990,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -1075,7 +1075,7 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3">
         <v>0.17499999999999999</v>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1112,7 +1112,7 @@
         <v>0.10355</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="3">
         <f>E11*0.9</f>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -1151,7 +1151,7 @@
         <v>2.5649999999999999</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="3">
         <f>E12*0.9</f>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q12">
         <f t="shared" ref="Q12" si="2">IF(E12=H12, 1, IF(F12=$F$2, 1, 0))</f>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -1220,13 +1220,13 @@
         <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="3">
         <v>134000</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14">
         <f>E14*0.8</f>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>27</v>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="5">
         <f t="shared" ref="Q18:Q19" si="3">IF(E18=H18, 1, IF(F18=$F$2, 1, 0))</f>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="5">
         <f t="shared" si="3"/>
@@ -1432,23 +1432,23 @@
     </row>
     <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" s="4">
         <f>0.423/2</f>
         <v>0.21149999999999999</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="4">
         <f>E20*0.8</f>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="5">
         <f t="shared" si="1"/>
@@ -1473,16 +1473,16 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21" si="4">IF(E21=H21, 1, IF(F21=$F$2, 1, 0))</f>
@@ -1508,16 +1508,16 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q22">
         <f t="shared" si="1"/>
@@ -1546,13 +1546,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="3">
         <v>0.95</v>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q23">
         <f t="shared" si="1"/>
@@ -1579,16 +1579,16 @@
     </row>
     <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="4">
         <v>0.05</v>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q24" s="5">
         <f t="shared" si="1"/>
@@ -1616,10 +1616,10 @@
     </row>
     <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q25" s="5">
         <f t="shared" si="1"/>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>27</v>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="5">
         <f t="shared" si="1"/>
@@ -1690,16 +1690,16 @@
     </row>
     <row r="27" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="6">
         <v>0.39</v>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" si="1"/>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="28" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>27</v>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q28" s="5">
         <f t="shared" si="1"/>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>27</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q29">
         <f t="shared" ref="Q29:Q31" si="5">IF(E29=H29, 1, IF(F29=$F$2, 1, 0))</f>
@@ -1801,16 +1801,16 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="3">
         <v>0.3</v>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q30">
         <f t="shared" si="5"/>
@@ -1837,10 +1837,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>27</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q31">
         <f t="shared" si="5"/>
@@ -1874,10 +1874,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>27</v>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q32">
         <f t="shared" si="1"/>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>14</v>
@@ -1926,7 +1926,7 @@
         <v>168</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G33" s="3">
         <v>134.4</v>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q33">
         <f t="shared" ref="Q33:Q35" si="6">IF(E33=H33, 1, IF(F33=$F$2, 1, 0))</f>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q34">
         <f t="shared" si="6"/>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>23</v>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q35">
         <f t="shared" si="6"/>

--- a/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_sugarcane_Acrylic_10L.xlsx
+++ b/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_sugarcane_Acrylic_10L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\acrylic_acid_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B924C9-4774-4E78-BADC-68939B30AA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2651B8F-A6D4-4B27-B785-66DF1E74702B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1376,8 +1376,8 @@
         <v>22</v>
       </c>
       <c r="G18" s="4">
-        <f>E18*0.08</f>
-        <v>1.6240000000000001E-2</v>
+        <f>E18*0.8</f>
+        <v>0.16240000000000002</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4">
@@ -1389,7 +1389,7 @@
         <v>88</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" ref="Q18:Q19" si="3">IF(E18=H18, 1, IF(F18=$F$2, 1, 0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1413,8 +1413,8 @@
         <v>22</v>
       </c>
       <c r="G19" s="4">
-        <f>E19*0.08</f>
-        <v>5.2800000000000004E-4</v>
+        <f>E19*0.8</f>
+        <v>5.28E-3</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4">
@@ -1426,7 +1426,7 @@
         <v>87</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <v>63</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21" si="4">IF(E21=H21, 1, IF(F21=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q21" si="3">IF(E21=H21, 1, IF(F21=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
         <v>65</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29:Q31" si="5">IF(E29=H29, 1, IF(F29=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q29:Q31" si="4">IF(E29=H29, 1, IF(F29=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
         <v>84</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
         <v>86</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
         <v>53</v>
       </c>
       <c r="Q33">
-        <f t="shared" ref="Q33:Q35" si="6">IF(E33=H33, 1, IF(F33=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q33:Q35" si="5">IF(E33=H33, 1, IF(F33=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
         <v>37</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
         <v>49</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>

--- a/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_sugarcane_Acrylic_10L.xlsx
+++ b/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_sugarcane_Acrylic_10L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\acrylic_acid_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B924C9-4774-4E78-BADC-68939B30AA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A647E6B-E4C3-4023-94E6-3251A7040499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A19" sqref="A18:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1376,8 +1376,8 @@
         <v>22</v>
       </c>
       <c r="G18" s="4">
-        <f>E18*0.08</f>
-        <v>1.6240000000000001E-2</v>
+        <f>E18*0.8</f>
+        <v>0.16240000000000002</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4">
@@ -1389,7 +1389,7 @@
         <v>88</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" ref="Q18:Q19" si="3">IF(E18=H18, 1, IF(F18=$F$2, 1, 0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1413,8 +1413,8 @@
         <v>22</v>
       </c>
       <c r="G19" s="4">
-        <f>E19*0.08</f>
-        <v>5.2800000000000004E-4</v>
+        <f>E19*0.8</f>
+        <v>5.28E-3</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4">
@@ -1426,7 +1426,7 @@
         <v>87</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <v>63</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21" si="4">IF(E21=H21, 1, IF(F21=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q21" si="3">IF(E21=H21, 1, IF(F21=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
         <v>65</v>
       </c>
       <c r="Q29">
-        <f t="shared" ref="Q29:Q31" si="5">IF(E29=H29, 1, IF(F29=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q29:Q31" si="4">IF(E29=H29, 1, IF(F29=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
         <v>84</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
         <v>86</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
         <v>53</v>
       </c>
       <c r="Q33">
-        <f t="shared" ref="Q33:Q35" si="6">IF(E33=H33, 1, IF(F33=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q33:Q35" si="5">IF(E33=H33, 1, IF(F33=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
         <v>37</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
         <v>49</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
